--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>纠错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order.service/order_goods.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合纠错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -791,6 +803,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43600</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43601</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43602</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>整合纠错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service实例查询功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -827,6 +831,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43604</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>service实例查询功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中间件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,6 +843,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>消息中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring MVC @RequestMapping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,6 +855,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43608</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>Spring MVC @RequestMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格连接数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,6 +867,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43609</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>表格连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaEE基本实现/学习ModelAttribute、SessionAttribute、ModelAndView、POJO、RequestParam、RequestHeader/尝试在OSALS项目中运用，但情况不怎么好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -875,6 +879,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43610</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>JavaEE基本实现/学习ModelAttribute、SessionAttribute、ModelAndView、POJO、RequestParam、RequestHeader/尝试在OSALS项目中运用，但情况不怎么好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -887,6 +891,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43611</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写框架设计报告、模块设计报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -899,6 +903,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>撰写框架设计报告、模块设计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成模块设计报告文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -911,6 +915,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43613</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t>完成模块设计报告文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful_crud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,6 +927,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43615</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>restful_crud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annotation-driven</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -935,6 +939,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43617</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>annotation-driven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -947,6 +951,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43618</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
   </si>
   <si>
     <t>添加方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成订单，转成JSON数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,6 +963,14 @@
         <v>43</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43621</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>生成订单，转成JSON数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初学jQuery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -971,6 +975,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43624</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>初学jQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初识vue element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -983,6 +987,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43626</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>初识vue element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ui组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,6 +999,14 @@
         <v>46</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43627</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>使用ui组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StanfordCoreNLP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,6 +1011,14 @@
         <v>47</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43628</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>StanfordCoreNLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nlp框架/清华NLP文本分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,6 +1023,14 @@
         <v>48</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43629</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>Nlp框架/清华NLP文本分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续THUCTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP实体、Manager..定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,6 +1043,35 @@
         <v>49</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43630</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43631</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用复旦文本分类基本成功/调用百度EasyDl基本成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,6 +1076,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43634</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>调用复旦文本分类基本成功/调用百度EasyDl基本成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功调用清华THUCTC实现文本分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,6 +1088,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43635</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,11 +269,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用复旦文本分类基本成功/调用百度EasyDl基本成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功调用清华THUCTC实现文本分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法部署到项目上纠错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用复旦文本分类基本成功/调用百度EasyDL基本成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyDL部署纠错成功，其他错误还在艰难解决中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1093,7 @@
         <v>43634</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1093,7 +1101,23 @@
         <v>43635</v>
       </c>
       <c r="C60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43636</v>
+      </c>
+      <c r="C61" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43637</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t>EasyDL部署纠错成功，其他错误还在艰难解决中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1120,6 +1124,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43639</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044206张成文.xlsx
+++ b/doc/log/201708044206张成文.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,14 @@
   </si>
   <si>
     <t>建立表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,6 +1140,22 @@
         <v>57</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43641</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
